--- a/zero-fm/src/main/resources/plugin/fm/oob/data/fm.number.xlsx
+++ b/zero-fm/src/main/resources/plugin/fm/oob/data/fm.number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgreen\Downloads\vie\code\vertx-zero\vertx-pin\zero-fm\src\main\resources\plugin\fm\oob\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-fm/src/main/resources/plugin/fm/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B651326-3C0C-4490-8F68-D6DD0C8D6A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D5E6F-6A4A-7447-8977-0CC2E8E796A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-48380" yWindow="-60" windowWidth="41080" windowHeight="21200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-APP" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>code</t>
   </si>
@@ -192,14 +192,6 @@
     <t>45ff3159-eabc-4a99-a05a-d34ae6120d5d</t>
   </si>
   <si>
-    <t>NUM.PAYMENT.REFUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM.PAYMENT.DEBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退款单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,18 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fm.payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUM.SETTLEMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +230,24 @@
   <si>
     <t>NUM.ACCOUNT.BOOK.VIRTUAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM.DEBT</t>
+  </si>
+  <si>
+    <t>NUM.REFUND</t>
+  </si>
+  <si>
+    <t>fm.debt</t>
+  </si>
+  <si>
+    <t>fm.refund</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -260,20 +258,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,7 +279,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -379,9 +377,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,7 +389,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,408 +732,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="54.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M1" s="1"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
+      <c r="K8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="12" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>6</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14"/>
+      <c r="K9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="12" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>6</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="K11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="14" t="b">
+      <c r="M11" s="12" t="b">
         <v>1</v>
       </c>
     </row>

--- a/zero-fm/src/main/resources/plugin/fm/oob/data/fm.number.xlsx
+++ b/zero-fm/src/main/resources/plugin/fm/oob/data/fm.number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-fm/src/main/resources/plugin/fm/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D5E6F-6A4A-7447-8977-0CC2E8E796A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52552774-157F-874B-8185-1D4D13B7B7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-48380" yWindow="-60" windowWidth="41080" windowHeight="21200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -212,42 +212,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>f2b8c448-976c-4b11-a30b-95600db19658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑房账本编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM.ACCOUNT.BOOK.VIRTUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM.DEBT</t>
+  </si>
+  <si>
+    <t>NUM.REFUND</t>
+  </si>
+  <si>
+    <t>fm.debt</t>
+  </si>
+  <si>
+    <t>fm.refund</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>NUM.SETTLEMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f2b8c448-976c-4b11-a30b-95600db19658</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哑房账本编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM.ACCOUNT.BOOK.VIRTUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM.DEBT</t>
-  </si>
-  <si>
-    <t>NUM.REFUND</t>
-  </si>
-  <si>
-    <t>fm.debt</t>
-  </si>
-  <si>
-    <t>fm.refund</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -735,7 +734,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -936,13 +935,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>53</v>
@@ -951,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>5</v>
@@ -1013,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1052,19 +1051,19 @@
         <v>47</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>42</v>
@@ -1091,19 +1090,19 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>42</v>

--- a/zero-fm/src/main/resources/plugin/fm/oob/data/fm.number.xlsx
+++ b/zero-fm/src/main/resources/plugin/fm/oob/data/fm.number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-fm/src/main/resources/plugin/fm/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52552774-157F-874B-8185-1D4D13B7B7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340039BF-35DA-D340-A4E8-5AB8CFFF2E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-48380" yWindow="-60" windowWidth="41080" windowHeight="21200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>code</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>NUM.SETTLEMENT</t>
+  </si>
+  <si>
+    <t>e433a2d1-b2d8-4577-8d58-e7c5568bff9d</t>
+  </si>
+  <si>
+    <t>NUM.TRANS</t>
+  </si>
+  <si>
+    <t>交易单</t>
+  </si>
+  <si>
+    <t>fm.trans</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -731,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1139,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:M2"/>
